--- a/wash_P/GRE.xlsx
+++ b/wash_P/GRE.xlsx
@@ -76675,7 +76675,7 @@
         <v>0</v>
       </c>
       <c r="ABL24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ABM24" t="n">
         <v>0</v>
@@ -76693,7 +76693,7 @@
         <v>0</v>
       </c>
       <c r="ABR24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ABS24" t="n">
         <v>0</v>
